--- a/server/templates/領収書請求書フォーマット.xlsx
+++ b/server/templates/領収書請求書フォーマット.xlsx
@@ -7,11 +7,16 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="PUKhjy+1u3Lo1Ko32GQ+rNSpeWpE+EvoUtxOelU7kig="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>医療・介護費</t>
   </si>
@@ -74,6 +79,9 @@
   </si>
   <si>
     <t>負担額</t>
+  </si>
+  <si>
+    <t>訪問看護基本療養費１（保健師、助産師又は看護師による場合（ハを除く。））（週３日目まで）</t>
   </si>
   <si>
     <t>保険外
@@ -108,6 +116,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$¥-411]#,##0"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10.0"/>
@@ -245,34 +256,31 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -282,78 +290,84 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="2" fontId="5" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center"/>
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,10 +583,10 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="1.75"/>
-    <col customWidth="1" min="2" max="24" width="3.88"/>
+    <col customWidth="1" min="2" max="24" width="5.25"/>
     <col customWidth="1" min="25" max="25" width="2.0"/>
   </cols>
   <sheetData>
@@ -603,7 +617,7 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="G2" s="3" t="s">
@@ -646,66 +660,66 @@
       <c r="X3" s="5"/>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="9"/>
+      <c r="N4" s="8"/>
       <c r="U4" s="5"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="12"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="11"/>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="U5" s="5"/>
-      <c r="V5" s="13"/>
-      <c r="X5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="X5" s="13"/>
       <c r="Y5" s="1"/>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="E6" s="14"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="U6" s="5"/>
-      <c r="V6" s="13"/>
-      <c r="X6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="X6" s="13"/>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="8"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="13"/>
-      <c r="X7" s="14"/>
+      <c r="V7" s="12"/>
+      <c r="X7" s="13"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -720,15 +734,15 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="18"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="17"/>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="5"/>
@@ -781,29 +795,29 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20" t="s">
+      <c r="I11" s="23"/>
+      <c r="J11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="23" t="s">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="Q11" s="5"/>
@@ -842,9 +856,9 @@
       <c r="X12" s="5"/>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="5"/>
@@ -860,13 +874,13 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="26" t="s">
+      <c r="T13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U13" s="21"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="27"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="26"/>
       <c r="Y13" s="1"/>
     </row>
     <row r="14" ht="6.75" customHeight="1">
@@ -898,39 +912,39 @@
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="27"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="26" t="s">
+      <c r="K15" s="26"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="27"/>
-      <c r="U15" s="26" t="s">
+      <c r="T15" s="26"/>
+      <c r="U15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="27"/>
-      <c r="W15" s="26" t="s">
+      <c r="V15" s="26"/>
+      <c r="W15" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="X15" s="27"/>
+      <c r="X15" s="26"/>
       <c r="Y15" s="1"/>
     </row>
     <row r="16" ht="6.75" customHeight="1">
@@ -960,319 +974,321 @@
       <c r="X16" s="5"/>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="26" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="26" t="s">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="26" t="s">
+      <c r="R17" s="26"/>
+      <c r="S17" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="T17" s="27"/>
-      <c r="U17" s="26" t="s">
+      <c r="T17" s="26"/>
+      <c r="U17" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="27"/>
-      <c r="W17" s="26" t="s">
+      <c r="V17" s="26"/>
+      <c r="W17" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="27"/>
+      <c r="X17" s="26"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" ht="28.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="27"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="26"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" ht="28.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="27"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="26"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" ht="28.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="27"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="26"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" ht="28.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="27"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="26"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" ht="28.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="27"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="26"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" ht="28.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="27"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="26"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" ht="28.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="27"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="26"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" ht="28.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="27"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="36"/>
+      <c r="X25" s="26"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" ht="28.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="27"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="26"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" ht="28.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="27"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="26"/>
       <c r="Y27" s="1"/>
     </row>
     <row r="28" ht="6.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1296,24 +1312,24 @@
       <c r="X28" s="5"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="27"/>
+      <c r="B29" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="26"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -1325,131 +1341,131 @@
       <c r="X29" s="5"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="27"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="26"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="S30" s="21"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="38" t="s">
+      <c r="R30" s="25" t="s">
         <v>23</v>
       </c>
+      <c r="S30" s="20"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="41" t="s">
+        <v>24</v>
+      </c>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="27"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="26"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="S31" s="21"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="38" t="s">
+      <c r="R31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="20"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="41" t="s">
         <v>7</v>
       </c>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="27"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="26"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" s="21"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="38" t="s">
+      <c r="R32" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" s="20"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="41" t="s">
         <v>7</v>
       </c>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="27"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="26"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="S33" s="21"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="38" t="s">
+      <c r="R33" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" s="20"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="41" t="s">
         <v>7</v>
       </c>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1476,10 +1492,10 @@
       <c r="X34" s="5"/>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="25" t="s">
-        <v>27</v>
+      <c r="B35" s="24" t="s">
+        <v>28</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1494,13 +1510,13 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="26" t="s">
+      <c r="T35" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U35" s="21"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="27"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="26"/>
       <c r="Y35" s="1"/>
     </row>
     <row r="36" ht="6.75" customHeight="1">
@@ -1530,313 +1546,313 @@
       <c r="X36" s="5"/>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="26" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R37" s="27"/>
-      <c r="S37" s="26" t="s">
+      <c r="R37" s="26"/>
+      <c r="S37" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="T37" s="27"/>
-      <c r="U37" s="26" t="s">
+      <c r="T37" s="26"/>
+      <c r="U37" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="V37" s="27"/>
-      <c r="W37" s="26" t="s">
+      <c r="V37" s="26"/>
+      <c r="W37" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="X37" s="27"/>
+      <c r="X37" s="26"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" ht="28.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="27"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="26"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39">
+    <row r="39" ht="28.5" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="27"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="26"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" ht="28.5" customHeight="1">
       <c r="A40" s="1"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="27"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="26"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" ht="28.5" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="27"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="27"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="36"/>
+      <c r="X41" s="26"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" ht="28.5" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="27"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="36"/>
+      <c r="X42" s="26"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" ht="28.5" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="27"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="36"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="36"/>
+      <c r="X43" s="26"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" ht="28.5" customHeight="1">
       <c r="A44" s="1"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="27"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="36"/>
+      <c r="X44" s="26"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" ht="28.5" customHeight="1">
       <c r="A45" s="1"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="27"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="36"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="36"/>
+      <c r="X45" s="26"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" ht="28.5" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="27"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="36"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="36"/>
+      <c r="X46" s="26"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" ht="28.5" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="27"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="27"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="27"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="27"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="36"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="36"/>
+      <c r="X47" s="26"/>
       <c r="Y47" s="1"/>
     </row>
     <row r="48" ht="6.75" customHeight="1">
@@ -1866,24 +1882,24 @@
       <c r="X48" s="5"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="27"/>
+      <c r="B49" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="26"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="1"/>
@@ -1895,22 +1911,22 @@
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="27"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="26"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="1"/>
@@ -1922,95 +1938,95 @@
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="27"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="26"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="S51" s="21"/>
-      <c r="T51" s="27"/>
-      <c r="U51" s="37"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
-      <c r="X51" s="38" t="s">
+      <c r="R51" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S51" s="20"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="40"/>
+      <c r="V51" s="20"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="41" t="s">
         <v>7</v>
       </c>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="27"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="26"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-      <c r="R52" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="S52" s="21"/>
-      <c r="T52" s="27"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
-      <c r="X52" s="38" t="s">
+      <c r="R52" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S52" s="20"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="20"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="41" t="s">
         <v>7</v>
       </c>
       <c r="Y52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="27"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="26"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="S53" s="21"/>
-      <c r="T53" s="27"/>
-      <c r="U53" s="41"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
-      <c r="X53" s="38" t="s">
+      <c r="R53" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S53" s="20"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="41" t="s">
         <v>7</v>
       </c>
       <c r="Y53" s="1"/>
@@ -2042,10 +2058,10 @@
       <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
-      <c r="B55" s="42" t="s">
-        <v>29</v>
+      <c r="B55" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2073,158 +2089,67 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="N4:T8"/>
+    <mergeCell ref="V4:X8"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D7"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="D40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="D41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="D42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="D43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="S45:T45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="D44:P44"/>
     <mergeCell ref="Q44:R44"/>
     <mergeCell ref="S44:T44"/>
-    <mergeCell ref="D44:P44"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="D42:P42"/>
-    <mergeCell ref="D43:P43"/>
     <mergeCell ref="U44:V44"/>
     <mergeCell ref="W44:X44"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="W43:X43"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="D38:P38"/>
-    <mergeCell ref="D39:P39"/>
-    <mergeCell ref="D40:P40"/>
-    <mergeCell ref="D41:P41"/>
     <mergeCell ref="D45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="S47:T47"/>
+    <mergeCell ref="U47:V47"/>
     <mergeCell ref="D46:P46"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="S45:T45"/>
-    <mergeCell ref="U45:V45"/>
-    <mergeCell ref="W45:X45"/>
     <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:T46"/>
+    <mergeCell ref="U46:V46"/>
     <mergeCell ref="W46:X46"/>
-    <mergeCell ref="D37:P37"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="D27:P27"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="R30:T30"/>
-    <mergeCell ref="U30:W30"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B37:C47"/>
+    <mergeCell ref="D47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="M53:O53"/>
     <mergeCell ref="B17:C27"/>
     <mergeCell ref="B29:C33"/>
-    <mergeCell ref="S46:T46"/>
-    <mergeCell ref="U46:V46"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="W47:X47"/>
-    <mergeCell ref="S47:T47"/>
-    <mergeCell ref="U47:V47"/>
-    <mergeCell ref="D47:P47"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="D22:P22"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D17:P17"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="R32:T32"/>
-    <mergeCell ref="U32:W32"/>
-    <mergeCell ref="D30:L30"/>
-    <mergeCell ref="D31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="R31:T31"/>
-    <mergeCell ref="U31:W31"/>
-    <mergeCell ref="D32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="D50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="D51:L51"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="R51:T51"/>
-    <mergeCell ref="U51:W51"/>
-    <mergeCell ref="D52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="R52:T52"/>
-    <mergeCell ref="U52:W52"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="R53:T53"/>
-    <mergeCell ref="U53:W53"/>
+    <mergeCell ref="B37:C47"/>
+    <mergeCell ref="B49:C53"/>
     <mergeCell ref="D49:L49"/>
     <mergeCell ref="M49:O49"/>
-    <mergeCell ref="B49:C53"/>
-    <mergeCell ref="D33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="U33:W33"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="N4:T8"/>
-    <mergeCell ref="V4:X8"/>
+    <mergeCell ref="M50:O50"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:N2"/>
@@ -2236,22 +2161,113 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="D27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="D50:L50"/>
+    <mergeCell ref="D51:L51"/>
+    <mergeCell ref="R51:T51"/>
+    <mergeCell ref="U51:W51"/>
+    <mergeCell ref="R52:T52"/>
+    <mergeCell ref="U52:W52"/>
+    <mergeCell ref="R53:T53"/>
+    <mergeCell ref="U53:W53"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:I15"/>
     <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:R15"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="W15:X15"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D7"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="D29:L29"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="D31:L31"/>
+    <mergeCell ref="D32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="R32:T32"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="D30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="R30:T30"/>
+    <mergeCell ref="U30:W30"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="R31:T31"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="D37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="D33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="D38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="D39:P39"/>
+    <mergeCell ref="Q39:R39"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/server/templates/領収書請求書フォーマット.xlsx
+++ b/server/templates/領収書請求書フォーマット.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>医療・介護費</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>負担額</t>
-  </si>
-  <si>
-    <t>訪問看護基本療養費１（保健師、助産師又は看護師による場合（ハを除く。））（週３日目まで）</t>
   </si>
   <si>
     <t>保険外
@@ -328,7 +325,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
@@ -340,7 +337,7 @@
       <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
@@ -349,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1013,13 +1010,11 @@
       <c r="X17" s="26"/>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" ht="28.5" customHeight="1">
+    <row r="18" ht="29.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="D18" s="30"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1042,7 +1037,7 @@
       <c r="X18" s="26"/>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" ht="28.5" customHeight="1">
+    <row r="19" ht="29.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
@@ -1069,7 +1064,7 @@
       <c r="X19" s="26"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" ht="28.5" customHeight="1">
+    <row r="20" ht="29.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -1096,7 +1091,7 @@
       <c r="X20" s="26"/>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" ht="28.5" customHeight="1">
+    <row r="21" ht="29.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
@@ -1123,7 +1118,7 @@
       <c r="X21" s="26"/>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" ht="28.5" customHeight="1">
+    <row r="22" ht="29.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -1150,7 +1145,7 @@
       <c r="X22" s="26"/>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" ht="28.5" customHeight="1">
+    <row r="23" ht="29.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
@@ -1177,7 +1172,7 @@
       <c r="X23" s="26"/>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" ht="28.5" customHeight="1">
+    <row r="24" ht="29.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
@@ -1204,7 +1199,7 @@
       <c r="X24" s="26"/>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" ht="28.5" customHeight="1">
+    <row r="25" ht="29.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
@@ -1231,7 +1226,7 @@
       <c r="X25" s="26"/>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" ht="28.5" customHeight="1">
+    <row r="26" ht="29.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
@@ -1258,7 +1253,7 @@
       <c r="X26" s="26"/>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" ht="28.5" customHeight="1">
+    <row r="27" ht="29.25" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="15"/>
       <c r="C27" s="17"/>
@@ -1315,7 +1310,7 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="28"/>
@@ -1360,7 +1355,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S30" s="20"/>
       <c r="T30" s="26"/>
@@ -1368,7 +1363,7 @@
       <c r="V30" s="20"/>
       <c r="W30" s="20"/>
       <c r="X30" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y30" s="1"/>
     </row>
@@ -1391,7 +1386,7 @@
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S31" s="20"/>
       <c r="T31" s="26"/>
@@ -1422,7 +1417,7 @@
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S32" s="20"/>
       <c r="T32" s="26"/>
@@ -1453,7 +1448,7 @@
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S33" s="20"/>
       <c r="T33" s="26"/>
@@ -1495,7 +1490,7 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1585,7 +1580,7 @@
       <c r="X37" s="26"/>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" ht="28.5" customHeight="1">
+    <row r="38" ht="29.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
@@ -1612,7 +1607,7 @@
       <c r="X38" s="26"/>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" ht="28.5" customHeight="1">
+    <row r="39" ht="29.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
@@ -1639,7 +1634,7 @@
       <c r="X39" s="26"/>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" ht="28.5" customHeight="1">
+    <row r="40" ht="29.25" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
@@ -1666,7 +1661,7 @@
       <c r="X40" s="26"/>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" ht="28.5" customHeight="1">
+    <row r="41" ht="29.25" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
@@ -1693,7 +1688,7 @@
       <c r="X41" s="26"/>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" ht="28.5" customHeight="1">
+    <row r="42" ht="29.25" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
@@ -1720,7 +1715,7 @@
       <c r="X42" s="26"/>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" ht="28.5" customHeight="1">
+    <row r="43" ht="29.25" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
@@ -1747,7 +1742,7 @@
       <c r="X43" s="26"/>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" ht="28.5" customHeight="1">
+    <row r="44" ht="29.25" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
@@ -1774,7 +1769,7 @@
       <c r="X44" s="26"/>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" ht="28.5" customHeight="1">
+    <row r="45" ht="29.25" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
@@ -1801,7 +1796,7 @@
       <c r="X45" s="26"/>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" ht="28.5" customHeight="1">
+    <row r="46" ht="29.25" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
@@ -1828,7 +1823,7 @@
       <c r="X46" s="26"/>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" ht="28.5" customHeight="1">
+    <row r="47" ht="29.25" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="15"/>
       <c r="C47" s="17"/>
@@ -1885,7 +1880,7 @@
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="43"/>
@@ -1957,7 +1952,7 @@
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S51" s="20"/>
       <c r="T51" s="26"/>
@@ -1988,7 +1983,7 @@
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S52" s="20"/>
       <c r="T52" s="26"/>
@@ -2019,7 +2014,7 @@
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S53" s="20"/>
       <c r="T53" s="26"/>
@@ -2061,7 +2056,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>

--- a/server/templates/領収書請求書フォーマット.xlsx
+++ b/server/templates/領収書請求書フォーマット.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>医療・介護費</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>患者氏名</t>
+  </si>
+  <si>
+    <t>様</t>
   </si>
   <si>
     <t>下記の通り医療費及び介護費をご請求申し上げます</t>
@@ -253,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -288,6 +291,9 @@
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -695,7 +701,9 @@
         <v>4</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="J6" s="5"/>
+      <c r="J6" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -707,7 +715,6 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="E7" s="8"/>
-      <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -731,16 +738,16 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="U8" s="5"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="17"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="18"/>
       <c r="Y8" s="1"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="18" t="s">
-        <v>5</v>
+      <c r="C9" s="19" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -794,28 +801,28 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="23"/>
-      <c r="J11" s="19" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="22" t="s">
-        <v>7</v>
+      <c r="I11" s="24"/>
+      <c r="J11" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -855,8 +862,8 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="24" t="s">
-        <v>9</v>
+      <c r="B13" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -871,13 +878,13 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="U13" s="20"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="26"/>
+      <c r="T13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="21"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="27"/>
       <c r="Y13" s="1"/>
     </row>
     <row r="14" ht="6.75" customHeight="1">
@@ -909,39 +916,39 @@
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="25" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="T15" s="26"/>
-      <c r="U15" s="25" t="s">
+      <c r="K15" s="27"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="W15" s="25" t="s">
+      <c r="T15" s="27"/>
+      <c r="U15" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="X15" s="26"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="X15" s="27"/>
       <c r="Y15" s="1"/>
     </row>
     <row r="16" ht="6.75" customHeight="1">
@@ -973,48 +980,48 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="29" t="s">
-        <v>12</v>
+      <c r="B17" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="11"/>
-      <c r="D17" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="25" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T17" s="26"/>
-      <c r="U17" s="25" t="s">
+      <c r="R17" s="27"/>
+      <c r="S17" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V17" s="26"/>
-      <c r="W17" s="25" t="s">
+      <c r="T17" s="27"/>
+      <c r="U17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="26"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="27"/>
       <c r="Y17" s="1"/>
     </row>
     <row r="18" ht="29.25" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
-      <c r="D18" s="30"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -1027,21 +1034,21 @@
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="26"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="27"/>
       <c r="Y18" s="1"/>
     </row>
     <row r="19" ht="29.25" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="12"/>
       <c r="C19" s="13"/>
-      <c r="D19" s="34"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -1054,21 +1061,21 @@
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="26"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="27"/>
       <c r="Y19" s="1"/>
     </row>
     <row r="20" ht="29.25" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
-      <c r="D20" s="34"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1081,21 +1088,21 @@
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="26"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="27"/>
       <c r="Y20" s="1"/>
     </row>
     <row r="21" ht="29.25" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="12"/>
       <c r="C21" s="13"/>
-      <c r="D21" s="34"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -1108,21 +1115,21 @@
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="26"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="27"/>
       <c r="Y21" s="1"/>
     </row>
     <row r="22" ht="29.25" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
-      <c r="D22" s="34"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -1135,21 +1142,21 @@
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="26"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="27"/>
       <c r="Y22" s="1"/>
     </row>
     <row r="23" ht="29.25" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="12"/>
       <c r="C23" s="13"/>
-      <c r="D23" s="34"/>
+      <c r="D23" s="35"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -1162,21 +1169,21 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="36"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="26"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="27"/>
       <c r="Y23" s="1"/>
     </row>
     <row r="24" ht="29.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="34"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -1189,21 +1196,21 @@
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="26"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="27"/>
       <c r="Y24" s="1"/>
     </row>
     <row r="25" ht="29.25" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
-      <c r="D25" s="34"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -1216,21 +1223,21 @@
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="36"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="26"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="27"/>
       <c r="Y25" s="1"/>
     </row>
     <row r="26" ht="29.25" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
-      <c r="D26" s="34"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -1243,47 +1250,47 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="36"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="26"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="27"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="27"/>
       <c r="Y26" s="1"/>
     </row>
     <row r="27" ht="29.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="26"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="27"/>
       <c r="Y27" s="1"/>
     </row>
     <row r="28" ht="6.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1309,22 +1316,22 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="39" t="s">
-        <v>21</v>
+      <c r="B29" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="C29" s="11"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="26"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="27"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -1340,30 +1347,30 @@
       <c r="A30" s="1"/>
       <c r="B30" s="12"/>
       <c r="C30" s="13"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="26"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="27"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
-      <c r="R30" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="S30" s="20"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="41" t="s">
+      <c r="R30" s="26" t="s">
         <v>23</v>
+      </c>
+      <c r="S30" s="21"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="42" t="s">
+        <v>24</v>
       </c>
       <c r="Y30" s="1"/>
     </row>
@@ -1371,30 +1378,30 @@
       <c r="A31" s="1"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="26"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="27"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
-      <c r="R31" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="S31" s="20"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="41" t="s">
-        <v>7</v>
+      <c r="R31" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="21"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="Y31" s="1"/>
     </row>
@@ -1402,61 +1409,61 @@
       <c r="A32" s="1"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="26"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="27"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
-      <c r="R32" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="S32" s="20"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="41" t="s">
-        <v>7</v>
+      <c r="R32" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" s="21"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="Y32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="26"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="27"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
-      <c r="R33" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="S33" s="20"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="41" t="s">
-        <v>7</v>
+      <c r="R33" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S33" s="21"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="Y33" s="1"/>
     </row>
@@ -1489,8 +1496,8 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="24" t="s">
-        <v>27</v>
+      <c r="B35" s="25" t="s">
+        <v>28</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -1505,13 +1512,13 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="U35" s="20"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="26"/>
+      <c r="T35" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="U35" s="21"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="27"/>
       <c r="Y35" s="1"/>
     </row>
     <row r="36" ht="6.75" customHeight="1">
@@ -1543,48 +1550,48 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="29" t="s">
-        <v>12</v>
+      <c r="B37" s="30" t="s">
+        <v>13</v>
       </c>
       <c r="C37" s="11"/>
-      <c r="D37" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="25" t="s">
+      <c r="D37" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R37" s="26"/>
-      <c r="S37" s="25" t="s">
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="T37" s="26"/>
-      <c r="U37" s="25" t="s">
+      <c r="R37" s="27"/>
+      <c r="S37" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V37" s="26"/>
-      <c r="W37" s="25" t="s">
+      <c r="T37" s="27"/>
+      <c r="U37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="X37" s="26"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="X37" s="27"/>
       <c r="Y37" s="1"/>
     </row>
     <row r="38" ht="29.25" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="12"/>
       <c r="C38" s="13"/>
-      <c r="D38" s="34"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -1597,21 +1604,21 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="26"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="27"/>
       <c r="Y38" s="1"/>
     </row>
     <row r="39" ht="29.25" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="12"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="34"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -1624,21 +1631,21 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="26"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="27"/>
       <c r="Y39" s="1"/>
     </row>
     <row r="40" ht="29.25" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="12"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="34"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -1651,21 +1658,21 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="26"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="27"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="27"/>
       <c r="Y40" s="1"/>
     </row>
     <row r="41" ht="29.25" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="12"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="34"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -1678,21 +1685,21 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="36"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="26"/>
+      <c r="Q41" s="32"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="27"/>
       <c r="Y41" s="1"/>
     </row>
     <row r="42" ht="29.25" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="12"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="34"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -1705,21 +1712,21 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="32"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="26"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="27"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="27"/>
       <c r="Y42" s="1"/>
     </row>
     <row r="43" ht="29.25" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="12"/>
       <c r="C43" s="13"/>
-      <c r="D43" s="34"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -1732,21 +1739,21 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="36"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="36"/>
-      <c r="X43" s="26"/>
+      <c r="Q43" s="36"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="27"/>
       <c r="Y43" s="1"/>
     </row>
     <row r="44" ht="29.25" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="12"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="34"/>
+      <c r="D44" s="35"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -1759,21 +1766,21 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="26"/>
+      <c r="Q44" s="36"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="27"/>
       <c r="Y44" s="1"/>
     </row>
     <row r="45" ht="29.25" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="12"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="34"/>
+      <c r="D45" s="35"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -1786,21 +1793,21 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="36"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="36"/>
-      <c r="X45" s="26"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="27"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="27"/>
       <c r="Y45" s="1"/>
     </row>
     <row r="46" ht="29.25" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="12"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="34"/>
+      <c r="D46" s="35"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -1813,41 +1820,41 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="36"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="36"/>
-      <c r="X46" s="26"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="27"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="27"/>
       <c r="Y46" s="1"/>
     </row>
     <row r="47" ht="29.25" customHeight="1">
       <c r="A47" s="1"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="36"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="36"/>
-      <c r="X47" s="26"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="36"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="27"/>
       <c r="Y47" s="1"/>
     </row>
     <row r="48" ht="6.75" customHeight="1">
@@ -1879,22 +1886,22 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
-      <c r="B49" s="39" t="s">
-        <v>21</v>
+      <c r="B49" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="C49" s="11"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="26"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="27"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="1"/>
@@ -1910,18 +1917,18 @@
       <c r="A50" s="1"/>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="26"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="27"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="1"/>
@@ -1937,30 +1944,30 @@
       <c r="A51" s="1"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="26"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="27"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
-      <c r="R51" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="S51" s="20"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="40"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="41" t="s">
-        <v>7</v>
+      <c r="R51" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="S51" s="21"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
+      <c r="X51" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="Y51" s="1"/>
     </row>
@@ -1968,61 +1975,61 @@
       <c r="A52" s="1"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="26"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="27"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
-      <c r="R52" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="S52" s="20"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="42"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="41" t="s">
-        <v>7</v>
+      <c r="R52" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S52" s="21"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
+      <c r="X52" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="Y52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="26"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="27"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
-      <c r="R53" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="S53" s="20"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="41" t="s">
-        <v>7</v>
+      <c r="R53" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="S53" s="21"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="42" t="s">
+        <v>8</v>
       </c>
       <c r="Y53" s="1"/>
     </row>
@@ -2056,7 +2063,7 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2083,7 +2090,7 @@
       <c r="Y55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="179">
+  <mergeCells count="180">
     <mergeCell ref="N4:T8"/>
     <mergeCell ref="V4:X8"/>
     <mergeCell ref="B5:D5"/>
@@ -2093,6 +2100,7 @@
     <mergeCell ref="E7:I7"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:G11"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="S41:T41"/>
     <mergeCell ref="U41:V41"/>
     <mergeCell ref="D40:P40"/>
